--- a/muban/test.xlsx
+++ b/muban/test.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tao\Desktop\A3\code\muban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E7218F-0124-460A-A81A-CCD0C3CDBFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A7274-A73C-44D8-941B-5C185D325B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{647A4A23-96EF-40F5-9EB1-09E0F803F16F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{647A4A23-96EF-40F5-9EB1-09E0F803F16F}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">数据!$A$1:$H$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">数据!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>宁德至古田高速公路</t>
   </si>
@@ -42,25 +42,12 @@
     <t>第   页 共  页</t>
   </si>
   <si>
-    <t xml:space="preserve"> 承包单位: 中交第二航务工程局有限公司·福建省高速路桥建设
-           发展有限公司（联合体）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    合同号：C1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 监理单位: 武汉大通工程建设有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    编  号：</t>
-  </si>
-  <si>
     <t>工程名称</t>
   </si>
   <si>
-    <t>测量日期</t>
-  </si>
-  <si>
     <t>桩号及部位</t>
   </si>
   <si>
@@ -82,12 +69,6 @@
     <t>前视</t>
   </si>
   <si>
-    <t>实测高程</t>
-  </si>
-  <si>
-    <t>设计高程</t>
-  </si>
-  <si>
     <t>差值（mm)</t>
   </si>
   <si>
@@ -104,6 +85,38 @@
   </si>
   <si>
     <t>日期：</t>
+  </si>
+  <si>
+    <t>中交第二航务工程局有限公司·福建省高速路桥建设发展有限公司（联合体）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">承包单位: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号：C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编  号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测标高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计标高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -114,7 +127,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
@@ -168,6 +181,19 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -312,12 +338,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,108 +493,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,389 +819,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EC33C-8E65-43CE-A64F-6945B552B7D3}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G3" s="6" t="s">
+    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="F8" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
-      <c r="D31" s="38"/>
-      <c r="G31" s="38"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="E31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B6:E6"/>
+  <mergeCells count="38">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A22:J29"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A22:H29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="31" max="7" man="1"/>

--- a/muban/test.xlsx
+++ b/muban/test.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tao\Desktop\A3\code\muban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A7274-A73C-44D8-941B-5C185D325B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7095D6E-A7D0-4BBB-B59E-555F166E1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{647A4A23-96EF-40F5-9EB1-09E0F803F16F}"/>
   </bookViews>
   <sheets>
-    <sheet name="数据" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">数据!$A$1:$J$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>宁德至古田高速公路</t>
   </si>
@@ -36,12 +36,6 @@
     <t xml:space="preserve">         水准测量记录表</t>
   </si>
   <si>
-    <t xml:space="preserve">   测表1</t>
-  </si>
-  <si>
-    <t>第   页 共  页</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 监理单位: 武汉大通工程建设有限公司</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
   </si>
   <si>
     <t>桩号及部位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BM：</t>
   </si>
   <si>
     <t>高程：</t>
@@ -116,6 +107,14 @@
   </si>
   <si>
     <t>测量时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测表1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BM：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -123,10 +122,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -163,21 +158,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -190,6 +172,20 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -353,103 +349,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -490,19 +469,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EC33C-8E65-43CE-A64F-6945B552B7D3}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -830,9 +815,9 @@
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="6.21875" customWidth="1"/>
     <col min="3" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="14.77734375" customWidth="1"/>
@@ -840,418 +825,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="1" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I3" s="45" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="22" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="24" t="s">
+      <c r="G8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="4" t="s">
+      <c r="H8" s="43"/>
+      <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="3" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-    </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-    </row>
-    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-    </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="E31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="E31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="A22:J29"/>
     <mergeCell ref="A1:J1"/>
@@ -1261,35 +1259,22 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
